--- a/Piano di Progetto/Preventivo/TotaleRendicontato.Orario.xlsx
+++ b/Piano di Progetto/Preventivo/TotaleRendicontato.Orario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AB3DED-1A99-431F-8E22-06A888E7528E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94042E97-E7E2-4D28-9AA3-C0F5DA1F2854}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967261" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>TOTALE</t>
-  </si>
-  <si>
-    <t>Investimento</t>
   </si>
   <si>
     <t>-</t>
@@ -200,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +241,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -342,7 +340,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -420,16 +418,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -438,7 +436,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +499,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -519,7 +517,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,13 +583,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35</c:v>
@@ -666,7 +664,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
@@ -675,7 +673,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
@@ -747,7 +745,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26</c:v>
@@ -756,7 +754,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>28</c:v>
@@ -815,7 +813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -916,7 +914,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1859,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,12 +1903,13 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
+      <c r="C2" s="5">
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="D2" s="5">
-        <f>5+3</f>
-        <v>8</v>
+        <f>5+3-3</f>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <f>10+8+10+7</f>
@@ -1925,7 +1924,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="5">
-        <f>SUM(B2:G2)</f>
+        <f t="shared" ref="H2:H8" si="0">SUM(B2:G2)</f>
         <v>102</v>
       </c>
     </row>
@@ -1934,31 +1933,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>3+5</f>
-        <v>8</v>
+        <f>3+4</f>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <f>3</f>
-        <v>3</v>
+        <f>3+2</f>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
-        <f>12+5+20</f>
-        <v>37</v>
+        <f>12+5+20-2</f>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
-        <f>2+2+15+5</f>
-        <v>24</v>
+        <f>2+2+15+5-2</f>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
-        <f>8+3+3+17</f>
-        <v>31</v>
+        <f>8+3+3+17+2</f>
+        <v>33</v>
       </c>
       <c r="H3" s="6">
-        <f>SUM(B3:G3)</f>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="5">
-        <f>SUM(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2003,15 +2002,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="6">
-        <f>2+5</f>
-        <v>7</v>
+        <f>2+5-2</f>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6">
-        <f>16+4+15</f>
-        <v>35</v>
+        <f>16+4+15+2</f>
+        <v>37</v>
       </c>
       <c r="F5" s="6">
         <f>1+2+14+3</f>
@@ -2022,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="6">
-        <f>SUM(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2039,22 +2038,22 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
         <f>6+5+20+4</f>
         <v>35</v>
       </c>
       <c r="F6" s="5">
-        <f>6+2+10+3</f>
-        <v>21</v>
+        <f>6+2+10+3+2</f>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
-        <f>9+2+16+11</f>
-        <v>38</v>
+        <f>9+2+16+11-2</f>
+        <v>36</v>
       </c>
       <c r="H6" s="5">
-        <f>SUM(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2087,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="6">
-        <f>SUM(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2096,15 +2095,15 @@
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10">
-        <f>4+2</f>
-        <v>6</v>
+        <f>4+2-3</f>
+        <v>3</v>
       </c>
       <c r="D8" s="10">
-        <f>2+2</f>
-        <v>4</v>
+        <f>2+2+3</f>
+        <v>7</v>
       </c>
       <c r="E8" s="10">
         <f>12+5+20</f>
@@ -2119,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="11">
-        <f>SUM(B8:G8)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2129,22 +2128,22 @@
       </c>
       <c r="B9" s="7">
         <f>SUM(B2:B8)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:H9" si="0">SUM(C2:C8)</f>
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C8)</f>
         <v>30</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="G9" s="14">
@@ -2152,299 +2151,30 @@
         <v>220</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>715</v>
+        <f t="shared" si="1"/>
+        <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>7</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <f>5+3</f>
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
-        <f>10+8+10+7</f>
-        <v>35</v>
-      </c>
-      <c r="F13" s="5">
-        <f>4+15+5</f>
-        <v>24</v>
-      </c>
-      <c r="G13" s="1">
-        <f>5+15+10</f>
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <f>SUM(B13:G13)</f>
-        <v>102</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <f>3+5</f>
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <f>12+5+20</f>
-        <v>37</v>
-      </c>
-      <c r="F14" s="2">
-        <f>2+2+15+5</f>
-        <v>24</v>
-      </c>
-      <c r="G14" s="4">
-        <f>8+3+3+17</f>
-        <v>31</v>
-      </c>
-      <c r="H14" s="6">
-        <f>SUM(B14:G14)</f>
-        <v>103</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
-        <f>2+4</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <f>3+5</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <f>16+20</f>
-        <v>36</v>
-      </c>
-      <c r="F15" s="5">
-        <f>1+4+16</f>
-        <v>21</v>
-      </c>
-      <c r="G15" s="1">
-        <f>3+10+13</f>
-        <v>26</v>
-      </c>
-      <c r="H15" s="5">
-        <f>SUM(B15:G15)</f>
-        <v>102</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <f>8</f>
-        <v>8</v>
-      </c>
-      <c r="C16" s="6">
-        <f>2+5</f>
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6">
-        <f>16+4+15</f>
-        <v>35</v>
-      </c>
-      <c r="F16" s="6">
-        <f>1+2+14+3</f>
-        <v>20</v>
-      </c>
-      <c r="G16" s="3">
-        <f>7+5+16+4</f>
-        <v>32</v>
-      </c>
-      <c r="H16" s="6">
-        <f>SUM(B16:G16)</f>
-        <v>102</v>
-      </c>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <f>2+3</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5">
-        <f>6+5+20+4</f>
-        <v>35</v>
-      </c>
-      <c r="F17" s="5">
-        <f>6+2+10+3</f>
-        <v>21</v>
-      </c>
-      <c r="G17" s="1">
-        <f>9+2+16+11</f>
-        <v>38</v>
-      </c>
-      <c r="H17" s="5">
-        <f>SUM(B17:G17)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <f>3+5</f>
-        <v>8</v>
-      </c>
-      <c r="C18" s="6">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <f>8</f>
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
-        <f>8+8+15+4</f>
-        <v>35</v>
-      </c>
-      <c r="F18" s="6">
-        <f>5+15</f>
-        <v>20</v>
-      </c>
-      <c r="G18" s="3">
-        <f>10+18</f>
-        <v>28</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(B18:G18)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10">
-        <f>4+2</f>
-        <v>6</v>
-      </c>
-      <c r="D19" s="10">
-        <f>2+2</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="10">
-        <f>12+5+20</f>
-        <v>37</v>
-      </c>
-      <c r="F19" s="10">
-        <f>1+15+4</f>
-        <v>20</v>
-      </c>
-      <c r="G19" s="9">
-        <f>6+2+10+17</f>
-        <v>35</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7">
-        <f>SUM(B13:B19)</f>
-        <v>40</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" ref="C20:F20" si="1">SUM(C13:C19)</f>
-        <v>30</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G20" s="14">
-        <f>SUM(G13:G19)</f>
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" ref="H20" si="2">SUM(H13:H19)</f>
-        <v>715</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
